--- a/2022/02-lacnov/02-VKCT2022-Lacnov.xlsx
+++ b/2022/02-lacnov/02-VKCT2022-Lacnov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">Ema Grulíková</t>
   </si>
   <si>
-    <t xml:space="preserve">Veronika Šibrová</t>
+    <t xml:space="preserve">Šíblová Veronika</t>
   </si>
   <si>
     <t xml:space="preserve">Starší přípravka - dívky (2012-2013)</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">Starší přípravka - chlapci (2012-2013)</t>
   </si>
   <si>
-    <t xml:space="preserve">Václav Šibl</t>
+    <t xml:space="preserve">Václav Šíbl</t>
   </si>
   <si>
     <t xml:space="preserve">Štěpán Kučírek</t>
@@ -594,7 +594,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1119,7 +1119,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1588,7 +1588,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2048,7 +2048,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2520,7 +2520,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2970,7 +2970,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3440,7 +3440,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4011,7 +4011,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4537,11 +4537,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5071,7 +5071,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5626,10 +5626,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5981,7 +5981,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6456,7 +6456,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7057,11 +7057,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7594,7 +7594,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8088,7 +8088,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8553,7 +8553,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>

--- a/2022/02-lacnov/02-VKCT2022-Lacnov.xlsx
+++ b/2022/02-lacnov/02-VKCT2022-Lacnov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">Vadim Rubeš</t>
   </si>
   <si>
-    <t xml:space="preserve">SZALOKI Michal</t>
+    <t xml:space="preserve">SZALÓKI Michal</t>
   </si>
   <si>
     <t xml:space="preserve">Lukáš Jatel</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Junioři (2005-2007)</t>
   </si>
   <si>
-    <t xml:space="preserve">Martin Čihář</t>
+    <t xml:space="preserve">Martin Čihař</t>
   </si>
   <si>
     <t xml:space="preserve">Kryštof Růžička</t>
@@ -594,7 +594,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1119,7 +1119,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1588,7 +1588,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2045,10 +2045,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2520,7 +2520,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2970,7 +2970,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3440,7 +3440,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4011,7 +4011,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4541,7 +4541,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5071,7 +5071,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5629,7 +5629,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5981,7 +5981,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6456,7 +6456,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7057,11 +7057,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7594,7 +7594,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8088,7 +8088,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8549,11 +8549,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
